--- a/label.xlsx
+++ b/label.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F47050-3406-4A54-96A0-FA53EE109710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{4A59EAF3-6FFB-4849-8CE6-F26C68B0A192}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>01-1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2인 거실 책읽기 책 어질러진 화난 5살남자아이검은색티셔츠금색짧은머리금발화난표정화난 30살검은색긴머리흰색티셔츠화난표정화난 앉아있는 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">2인 거실 책읽기 책 5살남자아이흰색티셔츠갈색짧은머리화난표정화난 40살검은색긴머리파란색티셔츠무표정 앉아있는 어깨동무 만화책 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,13 +144,17 @@
   </si>
   <si>
     <t>3인 침실 침대 안방 이불 30대검은색짧은머리아빠화난표정파란색잠옷앉아있는 10살여자아이앉아있는노란색잠옷갈색곱슬머리노란색눈동자화난표정 3살남자아이서있는화난표정소리지르는화난갈색짧은머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2인 거실 책읽기 책 어질러진 화난 5살남자아이검은색티셔츠금색짧은머리금발화난표정화난 30살검은색긴머리흰색티셔츠화난표정화난엄마 앉아있는</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -782,23 +781,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7F703F-B2E8-46C9-9B71-327A82AE352E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.09765625" style="1" customWidth="1"/>
-    <col min="4" max="41" width="5.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.125" style="1" customWidth="1"/>
+    <col min="4" max="41" width="5.625" style="1" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,7 +809,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="48.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="48.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -818,10 +817,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="48.9" customHeight="1" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -832,7 +831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="48.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -843,7 +842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="48.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -851,117 +850,117 @@
         <v>16</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="48.9" customHeight="1" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="48.9" customHeight="1" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="48.9" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="48.9" customHeight="1" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="48.9" customHeight="1" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="48.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="48.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:4" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:4" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:4" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:4" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="48.9" customHeight="1" x14ac:dyDescent="0.4"/>
+    </row>
+    <row r="12" spans="1:4" ht="48.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="48.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{ECE9B4A6-4A1D-45A9-995D-03D8B6E10ACA}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{B7426A43-F3CD-4EC2-93FC-1D7DBFC2ACE1}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{835ED279-DDDD-46A6-9F59-496BA5D772CC}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{CD479395-FF9A-4476-B19D-C3FAB84F455E}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{3E264D93-8FEE-4F14-B6B9-038A4A636D49}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{F5DBBD47-03E5-425D-B4C5-A8A0FC2EFF00}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{F7282E68-14E0-435F-A305-DCFC53D68261}"/>
-    <hyperlink ref="B7" r:id="rId8" xr:uid="{95211D36-D704-4040-9910-832065B002B4}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{F055868D-6961-4B8F-9B7D-145FEBEA2E62}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{DB9EB074-9D34-4E6D-98C2-1F2C986D1585}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>

--- a/label.xlsx
+++ b/label.xlsx
@@ -120,7 +120,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,7 +137,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -146,6 +146,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -371,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -391,47 +397,44 @@
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,7 +738,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -744,7 +747,6 @@
     <col min="1" max="1" style="19" width="9.719285714285713" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="19" width="30.290714285714284" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="19" width="56.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75" customFormat="1" s="1">
@@ -757,301 +759,261 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="51.75" customFormat="1" s="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="51" customFormat="1" s="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="59.25" customFormat="1" s="1">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="66.75" customFormat="1" s="1">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="51.75" customFormat="1" s="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="51" customFormat="1" s="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="50.25" customFormat="1" s="1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="48.75" customFormat="1" s="1">
       <c r="A9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="65.25" customFormat="1" s="1">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="69.75" customFormat="1" s="1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="48.95000000000001">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="48.95000000000001">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="48.95000000000001">
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="48.95000000000001">
-      <c r="A15" s="7"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
+      <c r="A15" s="17"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="48.95000000000001">
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="48.95000000000001">
+      <c r="C16" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="48.95000000000001">
-      <c r="A18" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
+      <c r="A18" s="18"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="48.95000000000001">
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="48.95000000000001">
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="48.95000000000001">
+      <c r="C20" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="48.95000000000001">
-      <c r="A22" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
+      <c r="A22" s="18"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="48.95000000000001">
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="48.95000000000001">
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="48.95000000000001">
+      <c r="C24" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="48.95000000000001">
-      <c r="A26" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
+      <c r="A26" s="18"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="48.95000000000001">
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="48.95000000000001">
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="48.95000000000001">
+      <c r="C28" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="48.95000000000001">
-      <c r="A30" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
+      <c r="A30" s="18"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="48.95000000000001">
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="48.95000000000001">
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="48.95000000000001">
+      <c r="C32" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="48.95000000000001">
-      <c r="A34" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
+      <c r="A34" s="18"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="48.95000000000001">
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="48.95000000000001">
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="48.95000000000001">
+      <c r="C36" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="48.95000000000001">
-      <c r="A38" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
+      <c r="A38" s="18"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="48.95000000000001">
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="48.95000000000001">
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="48.95000000000001" customFormat="1" s="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="18"/>
+      <c r="C40" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
